--- a/wp3/RoREs_cleaned.xlsx
+++ b/wp3/RoREs_cleaned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Country\Russia\Data\SEASHELL\SEABYTE\edreru\wp1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Country\Russia\Data\SEASHELL\SEABYTE\edreru\wp3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F633F3A-9EDA-42D1-9999-246565984666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86081295-A2C4-4462-BE17-0F20993FBBAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -902,18 +902,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="4" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>174</v>
       </c>
@@ -927,7 +928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -941,7 +942,7 @@
         <v>35.611704367088898</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -955,7 +956,7 @@
         <v>9.2546858603048694</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -969,7 +970,7 @@
         <v>28.220791878270798</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -983,7 +984,7 @@
         <v>26.883016442694402</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -997,7 +998,7 @@
         <v>16.435955564431801</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1011,7 +1012,7 @@
         <v>59.8920295833137</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1025,7 +1026,7 @@
         <v>54.630010363121997</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>86.682515035700405</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>123.048034648241</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1067,7 +1068,7 @@
         <v>88.337422376185003</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>20.704008029551101</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1095,7 +1096,7 @@
         <v>31.4060872328991</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1109,7 +1110,7 @@
         <v>8.4301057189975594</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>58.173404614071998</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>42.056314400843497</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1151,7 +1152,7 @@
         <v>14.9261268122224</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>18.154881226419</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>16.0424787132396</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>39.123506603907501</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>63.253787406042598</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>20.319127399280202</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1235,7 +1236,7 @@
         <v>5.0335427441419398</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>19.298263551029699</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1263,7 +1264,7 @@
         <v>35.889512218705399</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>28.046391428498399</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -1291,7 +1292,7 @@
         <v>9.2090350307230597</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>42.668265249435599</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -1319,7 +1320,7 @@
         <v>24.2492636950786</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>40.426161372232599</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>23.678587068090799</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>43.148598191645597</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>0.83987021934022199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>58.230198162467303</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>41.608849416800503</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -1417,7 +1418,7 @@
         <v>20.2456764168032</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -1431,7 +1432,7 @@
         <v>9.5503432462461699</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -1445,7 +1446,7 @@
         <v>25.912213153887901</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -1459,7 +1460,7 @@
         <v>30.506841788847201</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>20.574163760021801</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>75.207776104641596</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>36.790056907730303</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>47.362415551571601</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>16.9054188238539</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -1543,7 +1544,7 @@
         <v>5.4498720850580904</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>47.404277190342903</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>19.157771190685601</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -1585,7 +1586,7 @@
         <v>54.878394625221198</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>18.979101072892</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -1613,7 +1614,7 @@
         <v>36.174283204840201</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>33.286003222959103</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>47.3083821329923</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>18.524093203311601</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -1669,7 +1670,7 @@
         <v>2.5906408327997199</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>2.5800771920911898</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>105</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>63.940215054833899</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>107</v>
       </c>
@@ -1711,7 +1712,7 @@
         <v>34.371536511341802</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -1725,7 +1726,7 @@
         <v>142.92157104569799</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>50.145249244855002</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>113</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>50.600753678093803</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>115</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>11.6996813645637</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>117</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>25.848890996535701</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>73.015626007517398</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>22.4758348070911</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>123</v>
       </c>
@@ -1823,7 +1824,7 @@
         <v>32.194097192132503</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>21.1612527261907</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>49.003474604029201</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -1865,7 +1866,7 @@
         <v>32.742399118892699</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>131</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>22.091574305340298</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>133</v>
       </c>
@@ -1893,7 +1894,7 @@
         <v>10.3566758244204</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>135</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v>47.332141205264001</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>137</v>
       </c>
@@ -1921,7 +1922,7 @@
         <v>53.743733748805603</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>139</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>17.760560664409098</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>141</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>42.368192105359903</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>143</v>
       </c>
@@ -1963,7 +1964,7 @@
         <v>20.673750323857099</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>145</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>18.684376445112399</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>147</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>-4.6462425283658302</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>149</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>31.131766349287599</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>151</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>42.653450841337502</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>153</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>12.796882872622501</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>155</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>10.784011905095699</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>157</v>
       </c>
@@ -2061,7 +2062,7 @@
         <v>47.375906872032701</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>159</v>
       </c>
@@ -2075,7 +2076,7 @@
         <v>8.5305525623110103</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>161</v>
       </c>
@@ -2089,7 +2090,7 @@
         <v>31.5513310490891</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>163</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>31.000704803331399</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>165</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>36.1406971864075</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>167</v>
       </c>
